--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -14,11 +14,11 @@
   <sheets>
     <sheet name="改訂履歴" sheetId="62" r:id="rId1"/>
     <sheet name="テーブル一覧" sheetId="61" r:id="rId2"/>
-    <sheet name="User_table" sheetId="60" r:id="rId3"/>
+    <sheet name="user_table" sheetId="60" r:id="rId3"/>
     <sheet name="menu_table" sheetId="65" r:id="rId4"/>
     <sheet name="order_table" sheetId="64" r:id="rId5"/>
-    <sheet name="stock_table" sheetId="67" r:id="rId6"/>
-    <sheet name="_table" sheetId="69" r:id="rId7"/>
+    <sheet name="order_item_table" sheetId="69" r:id="rId6"/>
+    <sheet name="stock_table" sheetId="67" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="TABLE" localSheetId="1">テーブル一覧!$C$68:$C$68</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
   <si>
     <t>初期値</t>
   </si>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>User_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -294,22 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品情報を受け渡すid(01∼)</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※AUTO_INCREMENT(1001∼)、ユーザー情報を受け渡すid</t>
     <rPh sb="27" eb="29">
       <t>ジョウホウ</t>
@@ -384,10 +364,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>menu_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>みくおん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -445,38 +421,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>menu_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー番号</t>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品の名前</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -515,10 +459,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>個数</t>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文明細テーブル</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンメイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みくおん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文番号</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
     <rPh sb="0" eb="2">
-      <t>コスウ</t>
+      <t>ゴウケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2本1セット</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_cash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -526,13 +545,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2本1セット</t>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売上テーブル</t>
+    <t>注文商品番号</t>
+    <rPh sb="0" eb="6">
+      <t>チュウモンショウヒンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文商品金額</t>
+    <rPh sb="0" eb="6">
+      <t>チュウモンショウヒンキンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
     <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２本１セット</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4762,10 +4849,10 @@
   <sheetPr codeName="Sheet1122"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6:V6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4851,7 +4938,7 @@
       <c r="AA2" s="32"/>
       <c r="AB2" s="32"/>
       <c r="AC2" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
@@ -4933,7 +5020,7 @@
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -4945,7 +5032,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="39"/>
       <c r="M5" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="38"/>
@@ -4957,7 +5044,7 @@
       <c r="U5" s="38"/>
       <c r="V5" s="39"/>
       <c r="W5" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X5" s="38"/>
       <c r="Y5" s="38"/>
@@ -4996,7 +5083,7 @@
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
@@ -5008,7 +5095,7 @@
       <c r="K6" s="42"/>
       <c r="L6" s="43"/>
       <c r="M6" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" s="38"/>
       <c r="O6" s="38"/>
@@ -5020,7 +5107,7 @@
       <c r="U6" s="38"/>
       <c r="V6" s="39"/>
       <c r="W6" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
@@ -5059,7 +5146,7 @@
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -5071,7 +5158,7 @@
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
       <c r="M7" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -5083,7 +5170,7 @@
       <c r="U7" s="38"/>
       <c r="V7" s="39"/>
       <c r="W7" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X7" s="38"/>
       <c r="Y7" s="38"/>
@@ -7870,7 +7957,7 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6:T6"/>
+      <selection pane="bottomLeft" activeCell="AM5" sqref="AM5:AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -7898,7 +7985,7 @@
       <c r="M1" s="53"/>
       <c r="N1" s="54"/>
       <c r="O1" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="59"/>
       <c r="Q1" s="59"/>
@@ -7960,7 +8047,7 @@
       <c r="M2" s="56"/>
       <c r="N2" s="57"/>
       <c r="O2" s="58" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="P2" s="59"/>
       <c r="Q2" s="59"/>
@@ -7978,7 +8065,7 @@
       <c r="AA2" s="56"/>
       <c r="AB2" s="57"/>
       <c r="AC2" s="64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AD2" s="65"/>
       <c r="AE2" s="65"/>
@@ -8042,7 +8129,7 @@
       <c r="X4" s="49"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="49"/>
       <c r="AB4" s="49" t="s">
@@ -8090,7 +8177,7 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -8101,7 +8188,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="39"/>
       <c r="L5" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -8112,7 +8199,7 @@
       <c r="S5" s="38"/>
       <c r="T5" s="39"/>
       <c r="U5" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
@@ -8124,7 +8211,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="33"/>
       <c r="AE5" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF5" s="51"/>
       <c r="AG5" s="45"/>
@@ -8132,11 +8219,11 @@
       <c r="AI5" s="45"/>
       <c r="AJ5" s="45"/>
       <c r="AK5" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL5" s="45"/>
       <c r="AM5" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AN5" s="33"/>
       <c r="AO5" s="33"/>
@@ -8159,7 +8246,7 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -8170,7 +8257,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -8181,7 +8268,7 @@
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
       <c r="U6" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
@@ -8201,11 +8288,11 @@
       <c r="AI6" s="45"/>
       <c r="AJ6" s="45"/>
       <c r="AK6" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL6" s="45"/>
       <c r="AM6" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AN6" s="33"/>
       <c r="AO6" s="33"/>
@@ -8228,7 +8315,7 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -8239,7 +8326,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -8250,7 +8337,7 @@
       <c r="S7" s="38"/>
       <c r="T7" s="39"/>
       <c r="U7" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V7" s="33"/>
       <c r="W7" s="33"/>
@@ -8270,11 +8357,11 @@
       <c r="AI7" s="45"/>
       <c r="AJ7" s="45"/>
       <c r="AK7" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN7" s="33"/>
       <c r="AO7" s="33"/>
@@ -8297,7 +8384,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -8308,7 +8395,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -8335,7 +8422,7 @@
       <c r="AI8" s="45"/>
       <c r="AJ8" s="45"/>
       <c r="AK8" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="33"/>
@@ -8360,7 +8447,7 @@
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -8371,7 +8458,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -8398,7 +8485,7 @@
       <c r="AI9" s="45"/>
       <c r="AJ9" s="45"/>
       <c r="AK9" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL9" s="45"/>
       <c r="AM9" s="33"/>
@@ -8423,7 +8510,7 @@
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -8434,7 +8521,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="39"/>
       <c r="L10" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -8445,7 +8532,7 @@
       <c r="S10" s="38"/>
       <c r="T10" s="39"/>
       <c r="U10" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V10" s="33"/>
       <c r="W10" s="33"/>
@@ -8465,11 +8552,11 @@
       <c r="AI10" s="45"/>
       <c r="AJ10" s="45"/>
       <c r="AK10" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL10" s="45"/>
       <c r="AM10" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AN10" s="33"/>
       <c r="AO10" s="33"/>
@@ -11330,7 +11417,7 @@
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="U8" sqref="U8:Y8"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -11358,7 +11445,7 @@
       <c r="M1" s="53"/>
       <c r="N1" s="54"/>
       <c r="O1" s="58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P1" s="59"/>
       <c r="Q1" s="59"/>
@@ -11406,7 +11493,7 @@
       <c r="M2" s="56"/>
       <c r="N2" s="57"/>
       <c r="O2" s="82" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="P2" s="83"/>
       <c r="Q2" s="83"/>
@@ -11424,7 +11511,7 @@
       <c r="AA2" s="32"/>
       <c r="AB2" s="32"/>
       <c r="AC2" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
@@ -11522,7 +11609,7 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="79" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
@@ -11533,7 +11620,7 @@
       <c r="J5" s="79"/>
       <c r="K5" s="79"/>
       <c r="L5" s="79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M5" s="79"/>
       <c r="N5" s="79"/>
@@ -11544,7 +11631,7 @@
       <c r="S5" s="79"/>
       <c r="T5" s="79"/>
       <c r="U5" s="79" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="V5" s="79"/>
       <c r="W5" s="79"/>
@@ -11556,7 +11643,7 @@
       <c r="AC5" s="78"/>
       <c r="AD5" s="78"/>
       <c r="AE5" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
@@ -11564,7 +11651,7 @@
       <c r="AI5" s="77"/>
       <c r="AJ5" s="77"/>
       <c r="AK5" s="77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL5" s="77"/>
       <c r="AM5" s="33"/>
@@ -11589,7 +11676,7 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -11600,7 +11687,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -11611,7 +11698,7 @@
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
       <c r="U6" s="33" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
@@ -11631,7 +11718,7 @@
       <c r="AI6" s="45"/>
       <c r="AJ6" s="45"/>
       <c r="AK6" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL6" s="45"/>
       <c r="AM6" s="33"/>
@@ -11656,7 +11743,7 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -11667,7 +11754,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -11678,7 +11765,7 @@
       <c r="S7" s="38"/>
       <c r="T7" s="39"/>
       <c r="U7" s="33" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="V7" s="33"/>
       <c r="W7" s="33"/>
@@ -11696,7 +11783,7 @@
       <c r="AI7" s="45"/>
       <c r="AJ7" s="45"/>
       <c r="AK7" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="33"/>
@@ -11721,7 +11808,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="37" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -11732,7 +11819,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -11743,7 +11830,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
       <c r="U8" s="33" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="V8" s="33"/>
       <c r="W8" s="33"/>
@@ -11761,11 +11848,11 @@
       <c r="AI8" s="45"/>
       <c r="AJ8" s="45"/>
       <c r="AK8" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="33"/>
@@ -14755,7 +14842,7 @@
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="U28" sqref="U28:Y28"/>
+      <selection pane="bottomLeft" activeCell="Z6" sqref="Z6:AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -14783,7 +14870,7 @@
       <c r="M1" s="53"/>
       <c r="N1" s="54"/>
       <c r="O1" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P1" s="59"/>
       <c r="Q1" s="59"/>
@@ -14831,7 +14918,7 @@
       <c r="M2" s="56"/>
       <c r="N2" s="57"/>
       <c r="O2" s="82" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="P2" s="83"/>
       <c r="Q2" s="83"/>
@@ -14849,7 +14936,7 @@
       <c r="AA2" s="32"/>
       <c r="AB2" s="32"/>
       <c r="AC2" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
@@ -14947,7 +15034,7 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="37" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -14958,7 +15045,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="39"/>
       <c r="L5" s="37" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -14969,7 +15056,7 @@
       <c r="S5" s="38"/>
       <c r="T5" s="39"/>
       <c r="U5" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
@@ -14981,7 +15068,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="33"/>
       <c r="AE5" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" s="45"/>
       <c r="AG5" s="45"/>
@@ -14989,12 +15076,10 @@
       <c r="AI5" s="45"/>
       <c r="AJ5" s="45"/>
       <c r="AK5" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL5" s="45"/>
-      <c r="AM5" s="33" t="s">
-        <v>51</v>
-      </c>
+      <c r="AM5" s="33"/>
       <c r="AN5" s="33"/>
       <c r="AO5" s="33"/>
       <c r="AP5" s="33"/>
@@ -15016,7 +15101,7 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="37" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -15027,7 +15112,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -15038,14 +15123,14 @@
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
       <c r="U6" s="33" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
@@ -15058,11 +15143,11 @@
       <c r="AI6" s="45"/>
       <c r="AJ6" s="45"/>
       <c r="AK6" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL6" s="45"/>
       <c r="AM6" s="33" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AN6" s="33"/>
       <c r="AO6" s="33"/>
@@ -15085,7 +15170,7 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -15095,7 +15180,9 @@
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
-      <c r="L7" s="37"/>
+      <c r="L7" s="37" t="s">
+        <v>95</v>
+      </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -15105,15 +15192,13 @@
       <c r="S7" s="38"/>
       <c r="T7" s="39"/>
       <c r="U7" s="33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="V7" s="33"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
-      <c r="Z7" s="33">
-        <v>5</v>
-      </c>
+      <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
       <c r="AC7" s="33"/>
@@ -15125,12 +15210,10 @@
       <c r="AI7" s="45"/>
       <c r="AJ7" s="45"/>
       <c r="AK7" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL7" s="45"/>
-      <c r="AM7" s="37" t="s">
-        <v>91</v>
-      </c>
+      <c r="AM7" s="37"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="38"/>
       <c r="AP7" s="38"/>
@@ -15151,7 +15234,9 @@
         <v>4</v>
       </c>
       <c r="B8" s="44"/>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -15160,7 +15245,9 @@
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
-      <c r="L8" s="37"/>
+      <c r="L8" s="37" t="s">
+        <v>94</v>
+      </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
       <c r="O8" s="38"/>
@@ -15169,7 +15256,9 @@
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
-      <c r="U8" s="33"/>
+      <c r="U8" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="V8" s="33"/>
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
@@ -15185,7 +15274,9 @@
       <c r="AH8" s="45"/>
       <c r="AI8" s="45"/>
       <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
+      <c r="AK8" s="45" t="s">
+        <v>98</v>
+      </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="33"/>
       <c r="AN8" s="33"/>
@@ -17610,7 +17701,7 @@
       <c r="Y52" s="48"/>
       <c r="Z52" s="47">
         <f>SUM(Z5:AA50)</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA52" s="47"/>
     </row>
@@ -18161,7 +18252,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="AI27" sqref="AI27:AJ28"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -18206,9 +18297,7 @@
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
-      <c r="AC1" s="27">
-        <v>44214</v>
-      </c>
+      <c r="AC1" s="27"/>
       <c r="AD1" s="27"/>
       <c r="AE1" s="27"/>
       <c r="AF1" s="27"/>
@@ -18255,7 +18344,3423 @@
       <c r="AA2" s="32"/>
       <c r="AB2" s="32"/>
       <c r="AC2" s="29" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="30"/>
+    </row>
+    <row r="3" spans="1:52" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+    </row>
+    <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="44">
+        <f t="shared" ref="A5:A50" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A6" s="44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="33"/>
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="33"/>
+      <c r="AS6" s="33"/>
+      <c r="AT6" s="33"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="33"/>
+      <c r="AW6" s="33"/>
+      <c r="AX6" s="33"/>
+      <c r="AY6" s="33"/>
+      <c r="AZ6" s="33"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A7" s="44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="33"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="33"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A8" s="44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="33"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A9" s="44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A10" s="44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="33"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="33"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="33"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A11" s="44">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A12" s="44">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A13" s="44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A14" s="44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="33"/>
+      <c r="AS14" s="33"/>
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="33"/>
+      <c r="AV14" s="33"/>
+      <c r="AW14" s="33"/>
+      <c r="AX14" s="33"/>
+      <c r="AY14" s="33"/>
+      <c r="AZ14" s="33"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A15" s="44">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A16" s="44">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="33"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A17" s="44">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="33"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="33"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A18" s="44">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="33"/>
+      <c r="AS18" s="33"/>
+      <c r="AT18" s="33"/>
+      <c r="AU18" s="33"/>
+      <c r="AV18" s="33"/>
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="33"/>
+      <c r="AY18" s="33"/>
+      <c r="AZ18" s="33"/>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A19" s="44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="33"/>
+      <c r="AX19" s="33"/>
+      <c r="AY19" s="33"/>
+      <c r="AZ19" s="33"/>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A20" s="44">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="33"/>
+      <c r="AS20" s="33"/>
+      <c r="AT20" s="33"/>
+      <c r="AU20" s="33"/>
+      <c r="AV20" s="33"/>
+      <c r="AW20" s="33"/>
+      <c r="AX20" s="33"/>
+      <c r="AY20" s="33"/>
+      <c r="AZ20" s="33"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A21" s="44">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
+      <c r="AO21" s="33"/>
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33"/>
+      <c r="AT21" s="33"/>
+      <c r="AU21" s="33"/>
+      <c r="AV21" s="33"/>
+      <c r="AW21" s="33"/>
+      <c r="AX21" s="33"/>
+      <c r="AY21" s="33"/>
+      <c r="AZ21" s="33"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A22" s="44">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="33"/>
+      <c r="AN22" s="33"/>
+      <c r="AO22" s="33"/>
+      <c r="AP22" s="33"/>
+      <c r="AQ22" s="33"/>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="33"/>
+      <c r="AT22" s="33"/>
+      <c r="AU22" s="33"/>
+      <c r="AV22" s="33"/>
+      <c r="AW22" s="33"/>
+      <c r="AX22" s="33"/>
+      <c r="AY22" s="33"/>
+      <c r="AZ22" s="33"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A23" s="44">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+      <c r="AP23" s="33"/>
+      <c r="AQ23" s="33"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="33"/>
+      <c r="AT23" s="33"/>
+      <c r="AU23" s="33"/>
+      <c r="AV23" s="33"/>
+      <c r="AW23" s="33"/>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="33"/>
+      <c r="AZ23" s="33"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A24" s="44">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="33"/>
+      <c r="AP24" s="33"/>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="33"/>
+      <c r="AS24" s="33"/>
+      <c r="AT24" s="33"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="33"/>
+      <c r="AX24" s="33"/>
+      <c r="AY24" s="33"/>
+      <c r="AZ24" s="33"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A25" s="44">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="33"/>
+      <c r="AP25" s="33"/>
+      <c r="AQ25" s="33"/>
+      <c r="AR25" s="33"/>
+      <c r="AS25" s="33"/>
+      <c r="AT25" s="33"/>
+      <c r="AU25" s="33"/>
+      <c r="AV25" s="33"/>
+      <c r="AW25" s="33"/>
+      <c r="AX25" s="33"/>
+      <c r="AY25" s="33"/>
+      <c r="AZ25" s="33"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A26" s="44">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="33"/>
+      <c r="AP26" s="33"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="33"/>
+      <c r="AT26" s="33"/>
+      <c r="AU26" s="33"/>
+      <c r="AV26" s="33"/>
+      <c r="AW26" s="33"/>
+      <c r="AX26" s="33"/>
+      <c r="AY26" s="33"/>
+      <c r="AZ26" s="33"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A27" s="44">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="33"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="33"/>
+      <c r="AT27" s="33"/>
+      <c r="AU27" s="33"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="33"/>
+      <c r="AZ27" s="33"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A28" s="44">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="33"/>
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="33"/>
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="33"/>
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A29" s="44">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="45"/>
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="33"/>
+      <c r="AP29" s="33"/>
+      <c r="AQ29" s="33"/>
+      <c r="AR29" s="33"/>
+      <c r="AS29" s="33"/>
+      <c r="AT29" s="33"/>
+      <c r="AU29" s="33"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="33"/>
+      <c r="AX29" s="33"/>
+      <c r="AY29" s="33"/>
+      <c r="AZ29" s="33"/>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A30" s="44">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="33"/>
+      <c r="AN30" s="33"/>
+      <c r="AO30" s="33"/>
+      <c r="AP30" s="33"/>
+      <c r="AQ30" s="33"/>
+      <c r="AR30" s="33"/>
+      <c r="AS30" s="33"/>
+      <c r="AT30" s="33"/>
+      <c r="AU30" s="33"/>
+      <c r="AV30" s="33"/>
+      <c r="AW30" s="33"/>
+      <c r="AX30" s="33"/>
+      <c r="AY30" s="33"/>
+      <c r="AZ30" s="33"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A31" s="44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="33"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="33"/>
+      <c r="AR31" s="33"/>
+      <c r="AS31" s="33"/>
+      <c r="AT31" s="33"/>
+      <c r="AU31" s="33"/>
+      <c r="AV31" s="33"/>
+      <c r="AW31" s="33"/>
+      <c r="AX31" s="33"/>
+      <c r="AY31" s="33"/>
+      <c r="AZ31" s="33"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A32" s="44">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="33"/>
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33"/>
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="33"/>
+      <c r="AX32" s="33"/>
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="33"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A33" s="44">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="46"/>
+      <c r="AN33" s="33"/>
+      <c r="AO33" s="33"/>
+      <c r="AP33" s="33"/>
+      <c r="AQ33" s="33"/>
+      <c r="AR33" s="33"/>
+      <c r="AS33" s="33"/>
+      <c r="AT33" s="33"/>
+      <c r="AU33" s="33"/>
+      <c r="AV33" s="33"/>
+      <c r="AW33" s="33"/>
+      <c r="AX33" s="33"/>
+      <c r="AY33" s="33"/>
+      <c r="AZ33" s="33"/>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A34" s="44">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="33"/>
+      <c r="AO34" s="33"/>
+      <c r="AP34" s="33"/>
+      <c r="AQ34" s="33"/>
+      <c r="AR34" s="33"/>
+      <c r="AS34" s="33"/>
+      <c r="AT34" s="33"/>
+      <c r="AU34" s="33"/>
+      <c r="AV34" s="33"/>
+      <c r="AW34" s="33"/>
+      <c r="AX34" s="33"/>
+      <c r="AY34" s="33"/>
+      <c r="AZ34" s="33"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A35" s="44">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="33"/>
+      <c r="AP35" s="33"/>
+      <c r="AQ35" s="33"/>
+      <c r="AR35" s="33"/>
+      <c r="AS35" s="33"/>
+      <c r="AT35" s="33"/>
+      <c r="AU35" s="33"/>
+      <c r="AV35" s="33"/>
+      <c r="AW35" s="33"/>
+      <c r="AX35" s="33"/>
+      <c r="AY35" s="33"/>
+      <c r="AZ35" s="33"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A36" s="44">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A37" s="44">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="33"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="33"/>
+      <c r="AR37" s="33"/>
+      <c r="AS37" s="33"/>
+      <c r="AT37" s="33"/>
+      <c r="AU37" s="33"/>
+      <c r="AV37" s="33"/>
+      <c r="AW37" s="33"/>
+      <c r="AX37" s="33"/>
+      <c r="AY37" s="33"/>
+      <c r="AZ37" s="33"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A38" s="44">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="45"/>
+      <c r="AJ38" s="45"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="45"/>
+      <c r="AM38" s="46"/>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33"/>
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="33"/>
+      <c r="AS38" s="33"/>
+      <c r="AT38" s="33"/>
+      <c r="AU38" s="33"/>
+      <c r="AV38" s="33"/>
+      <c r="AW38" s="33"/>
+      <c r="AX38" s="33"/>
+      <c r="AY38" s="33"/>
+      <c r="AZ38" s="33"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A39" s="44">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="45"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="33"/>
+      <c r="AR39" s="33"/>
+      <c r="AS39" s="33"/>
+      <c r="AT39" s="33"/>
+      <c r="AU39" s="33"/>
+      <c r="AV39" s="33"/>
+      <c r="AW39" s="33"/>
+      <c r="AX39" s="33"/>
+      <c r="AY39" s="33"/>
+      <c r="AZ39" s="33"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A40" s="44">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="33"/>
+      <c r="AN40" s="33"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="33"/>
+      <c r="AS40" s="33"/>
+      <c r="AT40" s="33"/>
+      <c r="AU40" s="33"/>
+      <c r="AV40" s="33"/>
+      <c r="AW40" s="33"/>
+      <c r="AX40" s="33"/>
+      <c r="AY40" s="33"/>
+      <c r="AZ40" s="33"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A41" s="44">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="45"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="45"/>
+      <c r="AM41" s="33"/>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="33"/>
+      <c r="AR41" s="33"/>
+      <c r="AS41" s="33"/>
+      <c r="AT41" s="33"/>
+      <c r="AU41" s="33"/>
+      <c r="AV41" s="33"/>
+      <c r="AW41" s="33"/>
+      <c r="AX41" s="33"/>
+      <c r="AY41" s="33"/>
+      <c r="AZ41" s="33"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A42" s="44">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="33"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="45"/>
+      <c r="AI42" s="45"/>
+      <c r="AJ42" s="45"/>
+      <c r="AK42" s="45"/>
+      <c r="AL42" s="45"/>
+      <c r="AM42" s="46"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="33"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="33"/>
+      <c r="AU42" s="33"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="33"/>
+      <c r="AY42" s="33"/>
+      <c r="AZ42" s="33"/>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A43" s="44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="45"/>
+      <c r="AI43" s="45"/>
+      <c r="AJ43" s="45"/>
+      <c r="AK43" s="45"/>
+      <c r="AL43" s="45"/>
+      <c r="AM43" s="33"/>
+      <c r="AN43" s="33"/>
+      <c r="AO43" s="33"/>
+      <c r="AP43" s="33"/>
+      <c r="AQ43" s="33"/>
+      <c r="AR43" s="33"/>
+      <c r="AS43" s="33"/>
+      <c r="AT43" s="33"/>
+      <c r="AU43" s="33"/>
+      <c r="AV43" s="33"/>
+      <c r="AW43" s="33"/>
+      <c r="AX43" s="33"/>
+      <c r="AY43" s="33"/>
+      <c r="AZ43" s="33"/>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A44" s="44">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="33"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="45"/>
+      <c r="AH44" s="45"/>
+      <c r="AI44" s="45"/>
+      <c r="AJ44" s="45"/>
+      <c r="AK44" s="45"/>
+      <c r="AL44" s="45"/>
+      <c r="AM44" s="33"/>
+      <c r="AN44" s="33"/>
+      <c r="AO44" s="33"/>
+      <c r="AP44" s="33"/>
+      <c r="AQ44" s="33"/>
+      <c r="AR44" s="33"/>
+      <c r="AS44" s="33"/>
+      <c r="AT44" s="33"/>
+      <c r="AU44" s="33"/>
+      <c r="AV44" s="33"/>
+      <c r="AW44" s="33"/>
+      <c r="AX44" s="33"/>
+      <c r="AY44" s="33"/>
+      <c r="AZ44" s="33"/>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A45" s="44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="44"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="45"/>
+      <c r="AI45" s="45"/>
+      <c r="AJ45" s="45"/>
+      <c r="AK45" s="45"/>
+      <c r="AL45" s="45"/>
+      <c r="AM45" s="33"/>
+      <c r="AN45" s="33"/>
+      <c r="AO45" s="33"/>
+      <c r="AP45" s="33"/>
+      <c r="AQ45" s="33"/>
+      <c r="AR45" s="33"/>
+      <c r="AS45" s="33"/>
+      <c r="AT45" s="33"/>
+      <c r="AU45" s="33"/>
+      <c r="AV45" s="33"/>
+      <c r="AW45" s="33"/>
+      <c r="AX45" s="33"/>
+      <c r="AY45" s="33"/>
+      <c r="AZ45" s="33"/>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A46" s="44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="44"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="33"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="45"/>
+      <c r="AG46" s="45"/>
+      <c r="AH46" s="45"/>
+      <c r="AI46" s="45"/>
+      <c r="AJ46" s="45"/>
+      <c r="AK46" s="45"/>
+      <c r="AL46" s="45"/>
+      <c r="AM46" s="46"/>
+      <c r="AN46" s="33"/>
+      <c r="AO46" s="33"/>
+      <c r="AP46" s="33"/>
+      <c r="AQ46" s="33"/>
+      <c r="AR46" s="33"/>
+      <c r="AS46" s="33"/>
+      <c r="AT46" s="33"/>
+      <c r="AU46" s="33"/>
+      <c r="AV46" s="33"/>
+      <c r="AW46" s="33"/>
+      <c r="AX46" s="33"/>
+      <c r="AY46" s="33"/>
+      <c r="AZ46" s="33"/>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A47" s="44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="44"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="45"/>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45"/>
+      <c r="AJ47" s="45"/>
+      <c r="AK47" s="45"/>
+      <c r="AL47" s="45"/>
+      <c r="AM47" s="33"/>
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="33"/>
+      <c r="AS47" s="33"/>
+      <c r="AT47" s="33"/>
+      <c r="AU47" s="33"/>
+      <c r="AV47" s="33"/>
+      <c r="AW47" s="33"/>
+      <c r="AX47" s="33"/>
+      <c r="AY47" s="33"/>
+      <c r="AZ47" s="33"/>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A48" s="44">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="33"/>
+      <c r="AC48" s="33"/>
+      <c r="AD48" s="33"/>
+      <c r="AE48" s="45"/>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="45"/>
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="33"/>
+      <c r="AN48" s="33"/>
+      <c r="AO48" s="33"/>
+      <c r="AP48" s="33"/>
+      <c r="AQ48" s="33"/>
+      <c r="AR48" s="33"/>
+      <c r="AS48" s="33"/>
+      <c r="AT48" s="33"/>
+      <c r="AU48" s="33"/>
+      <c r="AV48" s="33"/>
+      <c r="AW48" s="33"/>
+      <c r="AX48" s="33"/>
+      <c r="AY48" s="33"/>
+      <c r="AZ48" s="33"/>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A49" s="44">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="44"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="45"/>
+      <c r="AF49" s="45"/>
+      <c r="AG49" s="45"/>
+      <c r="AH49" s="45"/>
+      <c r="AI49" s="45"/>
+      <c r="AJ49" s="45"/>
+      <c r="AK49" s="45"/>
+      <c r="AL49" s="45"/>
+      <c r="AM49" s="33"/>
+      <c r="AN49" s="33"/>
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="33"/>
+      <c r="AQ49" s="33"/>
+      <c r="AR49" s="33"/>
+      <c r="AS49" s="33"/>
+      <c r="AT49" s="33"/>
+      <c r="AU49" s="33"/>
+      <c r="AV49" s="33"/>
+      <c r="AW49" s="33"/>
+      <c r="AX49" s="33"/>
+      <c r="AY49" s="33"/>
+      <c r="AZ49" s="33"/>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A50" s="44">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="45"/>
+      <c r="AF50" s="45"/>
+      <c r="AG50" s="45"/>
+      <c r="AH50" s="45"/>
+      <c r="AI50" s="45"/>
+      <c r="AJ50" s="45"/>
+      <c r="AK50" s="45"/>
+      <c r="AL50" s="45"/>
+      <c r="AM50" s="33"/>
+      <c r="AN50" s="33"/>
+      <c r="AO50" s="33"/>
+      <c r="AP50" s="33"/>
+      <c r="AQ50" s="33"/>
+      <c r="AR50" s="33"/>
+      <c r="AS50" s="33"/>
+      <c r="AT50" s="33"/>
+      <c r="AU50" s="33"/>
+      <c r="AV50" s="33"/>
+      <c r="AW50" s="33"/>
+      <c r="AX50" s="33"/>
+      <c r="AY50" s="33"/>
+      <c r="AZ50" s="33"/>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="B52" s="1"/>
+      <c r="U52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="V52" s="48"/>
+      <c r="W52" s="48"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="47">
+        <f>SUM(Z5:AA50)</f>
+        <v>5</v>
+      </c>
+      <c r="AA52" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="528">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AL2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AZ5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AZ4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AZ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AZ7"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="L10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="L23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="L33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="L35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:T37"/>
+    <mergeCell ref="U37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AZ37"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AZ36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:T39"/>
+    <mergeCell ref="U39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AZ39"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AZ38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:T41"/>
+    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:T40"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AZ41"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AZ40"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:T43"/>
+    <mergeCell ref="U43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AZ43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AZ42"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:T45"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:T44"/>
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AZ45"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AZ44"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="L47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:T46"/>
+    <mergeCell ref="U46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AZ47"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AZ46"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="L48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AZ49"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AZ48"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AZ50"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AD50"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;"明朝,標準"&amp;8Copyright © 2007 sample Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ52"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AG40" sqref="AG40:AH40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="27">
+        <v>44214</v>
+      </c>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="28"/>
+    </row>
+    <row r="2" spans="1:52" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
@@ -21524,3370 +25029,4 @@
     <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;"明朝,標準"&amp;8Copyright © 2007 sample Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ52"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8:T9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="2.625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:52" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="28"/>
-    </row>
-    <row r="2" spans="1:52" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="30"/>
-    </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-    </row>
-    <row r="5" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44">
-        <f t="shared" ref="A5:A50" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="46"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="46"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A6" s="44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="33"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="33"/>
-      <c r="AW6" s="33"/>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="33"/>
-      <c r="AZ6" s="33"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A7" s="44">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="33"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A8" s="44">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="33"/>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="33"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A9" s="44">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A10" s="44">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="33"/>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="33"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A11" s="44">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A12" s="44">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A13" s="44">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A14" s="44">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A15" s="44">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="33"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A16" s="44">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A17" s="44">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="33"/>
-      <c r="AZ17" s="33"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A18" s="44">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="33"/>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A19" s="44">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="33"/>
-      <c r="AZ19" s="33"/>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A20" s="44">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="46"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="33"/>
-      <c r="AY20" s="33"/>
-      <c r="AZ20" s="33"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A21" s="44">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="33"/>
-      <c r="AY21" s="33"/>
-      <c r="AZ21" s="33"/>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A22" s="44">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="33"/>
-      <c r="AW22" s="33"/>
-      <c r="AX22" s="33"/>
-      <c r="AY22" s="33"/>
-      <c r="AZ22" s="33"/>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A23" s="44">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="33"/>
-      <c r="AS23" s="33"/>
-      <c r="AT23" s="33"/>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="33"/>
-      <c r="AY23" s="33"/>
-      <c r="AZ23" s="33"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A24" s="44">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="33"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="33"/>
-      <c r="AS24" s="33"/>
-      <c r="AT24" s="33"/>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="33"/>
-      <c r="AX24" s="33"/>
-      <c r="AY24" s="33"/>
-      <c r="AZ24" s="33"/>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A25" s="44">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="46"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="33"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="33"/>
-      <c r="AR25" s="33"/>
-      <c r="AS25" s="33"/>
-      <c r="AT25" s="33"/>
-      <c r="AU25" s="33"/>
-      <c r="AV25" s="33"/>
-      <c r="AW25" s="33"/>
-      <c r="AX25" s="33"/>
-      <c r="AY25" s="33"/>
-      <c r="AZ25" s="33"/>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A26" s="44">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="33"/>
-      <c r="AW26" s="33"/>
-      <c r="AX26" s="33"/>
-      <c r="AY26" s="33"/>
-      <c r="AZ26" s="33"/>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A27" s="44">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="33"/>
-      <c r="AZ27" s="33"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A28" s="44">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A29" s="44">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="33"/>
-      <c r="AZ29" s="33"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A30" s="44">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="33"/>
-      <c r="AY30" s="33"/>
-      <c r="AZ30" s="33"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A31" s="44">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="33"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="33"/>
-      <c r="AR31" s="33"/>
-      <c r="AS31" s="33"/>
-      <c r="AT31" s="33"/>
-      <c r="AU31" s="33"/>
-      <c r="AV31" s="33"/>
-      <c r="AW31" s="33"/>
-      <c r="AX31" s="33"/>
-      <c r="AY31" s="33"/>
-      <c r="AZ31" s="33"/>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A32" s="44">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33"/>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
-      <c r="AX32" s="33"/>
-      <c r="AY32" s="33"/>
-      <c r="AZ32" s="33"/>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A33" s="44">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="46"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="33"/>
-      <c r="AV33" s="33"/>
-      <c r="AW33" s="33"/>
-      <c r="AX33" s="33"/>
-      <c r="AY33" s="33"/>
-      <c r="AZ33" s="33"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A34" s="44">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="33"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="33"/>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="33"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A35" s="44">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="45"/>
-      <c r="AK35" s="45"/>
-      <c r="AL35" s="45"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="33"/>
-      <c r="AS35" s="33"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="33"/>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="33"/>
-      <c r="AX35" s="33"/>
-      <c r="AY35" s="33"/>
-      <c r="AZ35" s="33"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A36" s="44">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
-      <c r="AX36" s="33"/>
-      <c r="AY36" s="33"/>
-      <c r="AZ36" s="33"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A37" s="44">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="45"/>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
-      <c r="AM37" s="33"/>
-      <c r="AN37" s="33"/>
-      <c r="AO37" s="33"/>
-      <c r="AP37" s="33"/>
-      <c r="AQ37" s="33"/>
-      <c r="AR37" s="33"/>
-      <c r="AS37" s="33"/>
-      <c r="AT37" s="33"/>
-      <c r="AU37" s="33"/>
-      <c r="AV37" s="33"/>
-      <c r="AW37" s="33"/>
-      <c r="AX37" s="33"/>
-      <c r="AY37" s="33"/>
-      <c r="AZ37" s="33"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A38" s="44">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="45"/>
-      <c r="AM38" s="46"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="33"/>
-      <c r="AS38" s="33"/>
-      <c r="AT38" s="33"/>
-      <c r="AU38" s="33"/>
-      <c r="AV38" s="33"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="33"/>
-      <c r="AY38" s="33"/>
-      <c r="AZ38" s="33"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A39" s="44">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="45"/>
-      <c r="AG39" s="45"/>
-      <c r="AH39" s="45"/>
-      <c r="AI39" s="45"/>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="45"/>
-      <c r="AM39" s="33"/>
-      <c r="AN39" s="33"/>
-      <c r="AO39" s="33"/>
-      <c r="AP39" s="33"/>
-      <c r="AQ39" s="33"/>
-      <c r="AR39" s="33"/>
-      <c r="AS39" s="33"/>
-      <c r="AT39" s="33"/>
-      <c r="AU39" s="33"/>
-      <c r="AV39" s="33"/>
-      <c r="AW39" s="33"/>
-      <c r="AX39" s="33"/>
-      <c r="AY39" s="33"/>
-      <c r="AZ39" s="33"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A40" s="44">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="45"/>
-      <c r="AM40" s="33"/>
-      <c r="AN40" s="33"/>
-      <c r="AO40" s="33"/>
-      <c r="AP40" s="33"/>
-      <c r="AQ40" s="33"/>
-      <c r="AR40" s="33"/>
-      <c r="AS40" s="33"/>
-      <c r="AT40" s="33"/>
-      <c r="AU40" s="33"/>
-      <c r="AV40" s="33"/>
-      <c r="AW40" s="33"/>
-      <c r="AX40" s="33"/>
-      <c r="AY40" s="33"/>
-      <c r="AZ40" s="33"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A41" s="44">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="45"/>
-      <c r="AK41" s="45"/>
-      <c r="AL41" s="45"/>
-      <c r="AM41" s="33"/>
-      <c r="AN41" s="33"/>
-      <c r="AO41" s="33"/>
-      <c r="AP41" s="33"/>
-      <c r="AQ41" s="33"/>
-      <c r="AR41" s="33"/>
-      <c r="AS41" s="33"/>
-      <c r="AT41" s="33"/>
-      <c r="AU41" s="33"/>
-      <c r="AV41" s="33"/>
-      <c r="AW41" s="33"/>
-      <c r="AX41" s="33"/>
-      <c r="AY41" s="33"/>
-      <c r="AZ41" s="33"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A42" s="44">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="45"/>
-      <c r="AG42" s="45"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="45"/>
-      <c r="AK42" s="45"/>
-      <c r="AL42" s="45"/>
-      <c r="AM42" s="46"/>
-      <c r="AN42" s="33"/>
-      <c r="AO42" s="33"/>
-      <c r="AP42" s="33"/>
-      <c r="AQ42" s="33"/>
-      <c r="AR42" s="33"/>
-      <c r="AS42" s="33"/>
-      <c r="AT42" s="33"/>
-      <c r="AU42" s="33"/>
-      <c r="AV42" s="33"/>
-      <c r="AW42" s="33"/>
-      <c r="AX42" s="33"/>
-      <c r="AY42" s="33"/>
-      <c r="AZ42" s="33"/>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A43" s="44">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="45"/>
-      <c r="AJ43" s="45"/>
-      <c r="AK43" s="45"/>
-      <c r="AL43" s="45"/>
-      <c r="AM43" s="33"/>
-      <c r="AN43" s="33"/>
-      <c r="AO43" s="33"/>
-      <c r="AP43" s="33"/>
-      <c r="AQ43" s="33"/>
-      <c r="AR43" s="33"/>
-      <c r="AS43" s="33"/>
-      <c r="AT43" s="33"/>
-      <c r="AU43" s="33"/>
-      <c r="AV43" s="33"/>
-      <c r="AW43" s="33"/>
-      <c r="AX43" s="33"/>
-      <c r="AY43" s="33"/>
-      <c r="AZ43" s="33"/>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A44" s="44">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
-      <c r="AL44" s="45"/>
-      <c r="AM44" s="33"/>
-      <c r="AN44" s="33"/>
-      <c r="AO44" s="33"/>
-      <c r="AP44" s="33"/>
-      <c r="AQ44" s="33"/>
-      <c r="AR44" s="33"/>
-      <c r="AS44" s="33"/>
-      <c r="AT44" s="33"/>
-      <c r="AU44" s="33"/>
-      <c r="AV44" s="33"/>
-      <c r="AW44" s="33"/>
-      <c r="AX44" s="33"/>
-      <c r="AY44" s="33"/>
-      <c r="AZ44" s="33"/>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A45" s="44">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="45"/>
-      <c r="AF45" s="45"/>
-      <c r="AG45" s="45"/>
-      <c r="AH45" s="45"/>
-      <c r="AI45" s="45"/>
-      <c r="AJ45" s="45"/>
-      <c r="AK45" s="45"/>
-      <c r="AL45" s="45"/>
-      <c r="AM45" s="33"/>
-      <c r="AN45" s="33"/>
-      <c r="AO45" s="33"/>
-      <c r="AP45" s="33"/>
-      <c r="AQ45" s="33"/>
-      <c r="AR45" s="33"/>
-      <c r="AS45" s="33"/>
-      <c r="AT45" s="33"/>
-      <c r="AU45" s="33"/>
-      <c r="AV45" s="33"/>
-      <c r="AW45" s="33"/>
-      <c r="AX45" s="33"/>
-      <c r="AY45" s="33"/>
-      <c r="AZ45" s="33"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A46" s="44">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="45"/>
-      <c r="AG46" s="45"/>
-      <c r="AH46" s="45"/>
-      <c r="AI46" s="45"/>
-      <c r="AJ46" s="45"/>
-      <c r="AK46" s="45"/>
-      <c r="AL46" s="45"/>
-      <c r="AM46" s="46"/>
-      <c r="AN46" s="33"/>
-      <c r="AO46" s="33"/>
-      <c r="AP46" s="33"/>
-      <c r="AQ46" s="33"/>
-      <c r="AR46" s="33"/>
-      <c r="AS46" s="33"/>
-      <c r="AT46" s="33"/>
-      <c r="AU46" s="33"/>
-      <c r="AV46" s="33"/>
-      <c r="AW46" s="33"/>
-      <c r="AX46" s="33"/>
-      <c r="AY46" s="33"/>
-      <c r="AZ46" s="33"/>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A47" s="44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="45"/>
-      <c r="AG47" s="45"/>
-      <c r="AH47" s="45"/>
-      <c r="AI47" s="45"/>
-      <c r="AJ47" s="45"/>
-      <c r="AK47" s="45"/>
-      <c r="AL47" s="45"/>
-      <c r="AM47" s="33"/>
-      <c r="AN47" s="33"/>
-      <c r="AO47" s="33"/>
-      <c r="AP47" s="33"/>
-      <c r="AQ47" s="33"/>
-      <c r="AR47" s="33"/>
-      <c r="AS47" s="33"/>
-      <c r="AT47" s="33"/>
-      <c r="AU47" s="33"/>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="33"/>
-      <c r="AX47" s="33"/>
-      <c r="AY47" s="33"/>
-      <c r="AZ47" s="33"/>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A48" s="44">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="45"/>
-      <c r="AF48" s="45"/>
-      <c r="AG48" s="45"/>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="45"/>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="33"/>
-      <c r="AN48" s="33"/>
-      <c r="AO48" s="33"/>
-      <c r="AP48" s="33"/>
-      <c r="AQ48" s="33"/>
-      <c r="AR48" s="33"/>
-      <c r="AS48" s="33"/>
-      <c r="AT48" s="33"/>
-      <c r="AU48" s="33"/>
-      <c r="AV48" s="33"/>
-      <c r="AW48" s="33"/>
-      <c r="AX48" s="33"/>
-      <c r="AY48" s="33"/>
-      <c r="AZ48" s="33"/>
-    </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A49" s="44">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="45"/>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="45"/>
-      <c r="AH49" s="45"/>
-      <c r="AI49" s="45"/>
-      <c r="AJ49" s="45"/>
-      <c r="AK49" s="45"/>
-      <c r="AL49" s="45"/>
-      <c r="AM49" s="33"/>
-      <c r="AN49" s="33"/>
-      <c r="AO49" s="33"/>
-      <c r="AP49" s="33"/>
-      <c r="AQ49" s="33"/>
-      <c r="AR49" s="33"/>
-      <c r="AS49" s="33"/>
-      <c r="AT49" s="33"/>
-      <c r="AU49" s="33"/>
-      <c r="AV49" s="33"/>
-      <c r="AW49" s="33"/>
-      <c r="AX49" s="33"/>
-      <c r="AY49" s="33"/>
-      <c r="AZ49" s="33"/>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A50" s="44">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="45"/>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="45"/>
-      <c r="AJ50" s="45"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="33"/>
-      <c r="AN50" s="33"/>
-      <c r="AO50" s="33"/>
-      <c r="AP50" s="33"/>
-      <c r="AQ50" s="33"/>
-      <c r="AR50" s="33"/>
-      <c r="AS50" s="33"/>
-      <c r="AT50" s="33"/>
-      <c r="AU50" s="33"/>
-      <c r="AV50" s="33"/>
-      <c r="AW50" s="33"/>
-      <c r="AX50" s="33"/>
-      <c r="AY50" s="33"/>
-      <c r="AZ50" s="33"/>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="B52" s="1"/>
-      <c r="U52" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="V52" s="48"/>
-      <c r="W52" s="48"/>
-      <c r="X52" s="48"/>
-      <c r="Y52" s="48"/>
-      <c r="Z52" s="47">
-        <f>SUM(Z5:AA50)</f>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="528">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AL2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AZ5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AZ4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AZ6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="L8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AZ7"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="L10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="L12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="L14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="L18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="L23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="L33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="L35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:T37"/>
-    <mergeCell ref="U37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AZ37"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AZ36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:T39"/>
-    <mergeCell ref="U39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AZ39"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AZ38"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="L41:T41"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:T40"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AZ41"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AZ40"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:T43"/>
-    <mergeCell ref="U43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AZ43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AZ42"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:T45"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:T44"/>
-    <mergeCell ref="U44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AZ45"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AZ44"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="L47:T47"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:T46"/>
-    <mergeCell ref="U46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AZ47"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AZ46"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="U49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="L48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AZ49"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AZ48"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AZ50"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="U50:Y50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;8- &amp;P -&amp;R&amp;"明朝,標準"&amp;8Copyright © 2007 sample Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="758" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="758" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="62" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="user_table" sheetId="60" r:id="rId3"/>
     <sheet name="menu_table" sheetId="65" r:id="rId4"/>
     <sheet name="order_table" sheetId="64" r:id="rId5"/>
-    <sheet name="cash_table" sheetId="69" r:id="rId6"/>
+    <sheet name="payment_table" sheetId="69" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="TABLE" localSheetId="1">テーブル一覧!$C$68:$C$68</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
   <si>
     <t>初期値</t>
   </si>
@@ -453,6 +453,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>注文id</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,10 +479,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数量</t>
     <rPh sb="0" eb="2">
       <t>スウリョウ</t>
@@ -483,15 +486,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>order_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーid</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -608,6 +603,10 @@
   </si>
   <si>
     <t>inventory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7983,10 +7982,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="AE13" sqref="AE13:AF13"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -8217,7 +8216,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="39"/>
       <c r="L5" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -8286,7 +8285,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -8355,7 +8354,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -11443,10 +11442,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT52"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10:Y10"/>
+      <selection pane="bottomLeft" activeCell="AG20" sqref="AG20:AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -11783,7 +11782,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -11902,7 +11901,7 @@
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -11913,7 +11912,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -11924,7 +11923,7 @@
       <c r="S9" s="38"/>
       <c r="T9" s="39"/>
       <c r="U9" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V9" s="33"/>
       <c r="W9" s="33"/>
@@ -11965,7 +11964,7 @@
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -11976,7 +11975,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="39"/>
       <c r="L10" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -11987,7 +11986,7 @@
       <c r="S10" s="38"/>
       <c r="T10" s="39"/>
       <c r="U10" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V10" s="33"/>
       <c r="W10" s="33"/>
@@ -14881,7 +14880,7 @@
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10:T10"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -15073,7 +15072,7 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -15138,7 +15137,7 @@
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -15149,7 +15148,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -15214,7 +15213,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -15225,7 +15224,7 @@
       <c r="S7" s="38"/>
       <c r="T7" s="39"/>
       <c r="U7" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V7" s="33"/>
       <c r="W7" s="33"/>
@@ -15268,7 +15267,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -15279,7 +15278,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -15290,7 +15289,7 @@
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
       <c r="U8" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V8" s="33"/>
       <c r="W8" s="33"/>
@@ -15308,7 +15307,7 @@
       <c r="AI8" s="45"/>
       <c r="AJ8" s="45"/>
       <c r="AK8" s="45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="33"/>
@@ -15333,7 +15332,7 @@
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -15344,7 +15343,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -15355,7 +15354,7 @@
       <c r="S9" s="38"/>
       <c r="T9" s="39"/>
       <c r="U9" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V9" s="33"/>
       <c r="W9" s="33"/>
@@ -18291,7 +18290,7 @@
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:K5"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -18365,7 +18364,7 @@
       <c r="M2" s="56"/>
       <c r="N2" s="57"/>
       <c r="O2" s="82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P2" s="83"/>
       <c r="Q2" s="83"/>
@@ -18481,7 +18480,7 @@
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -18492,7 +18491,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="39"/>
       <c r="L5" s="37" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -18545,9 +18544,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="44"/>
-      <c r="C6" s="37" t="s">
-        <v>87</v>
-      </c>
+      <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
@@ -18556,9 +18553,7 @@
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
-      <c r="L6" s="37" t="s">
-        <v>96</v>
-      </c>
+      <c r="L6" s="37"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
       <c r="O6" s="38"/>
@@ -18567,9 +18562,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
-      <c r="U6" s="33" t="s">
-        <v>74</v>
-      </c>
+      <c r="U6" s="33"/>
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
@@ -18611,7 +18604,7 @@
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -18622,7 +18615,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
       <c r="L7" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -18633,7 +18626,7 @@
       <c r="S7" s="38"/>
       <c r="T7" s="39"/>
       <c r="U7" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V7" s="38"/>
       <c r="W7" s="38"/>
@@ -18674,7 +18667,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -18685,7 +18678,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="39"/>
       <c r="L8" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -18735,7 +18728,7 @@
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -18746,7 +18739,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="39"/>
       <c r="L9" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="758" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" tabRatio="758" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="62" r:id="rId1"/>
@@ -8028,7 +8028,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="AB13" sqref="AB13:AD13"/>
@@ -18341,10 +18341,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="U6" sqref="U6:Y6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
